--- a/data/pca/factorExposure/factorExposure_2009-10-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-10-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01457515772996413</v>
+        <v>0.01694628111677</v>
       </c>
       <c r="C2">
-        <v>-0.00163873726297461</v>
+        <v>-0.0009288144227418567</v>
       </c>
       <c r="D2">
-        <v>-0.001671856617817134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008632775708767165</v>
+      </c>
+      <c r="E2">
+        <v>-0.001618344603703829</v>
+      </c>
+      <c r="F2">
+        <v>0.01220523566463919</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1034764924766828</v>
+        <v>0.09364136486680086</v>
       </c>
       <c r="C4">
-        <v>-0.01968761443039244</v>
+        <v>-0.01446178728543027</v>
       </c>
       <c r="D4">
-        <v>-0.06809359393950216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08369497553509633</v>
+      </c>
+      <c r="E4">
+        <v>-0.02838112084095546</v>
+      </c>
+      <c r="F4">
+        <v>-0.03198707037606545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1396744027926071</v>
+        <v>0.1585736681797623</v>
       </c>
       <c r="C6">
-        <v>-0.02561185298550651</v>
+        <v>-0.02615743034920306</v>
       </c>
       <c r="D6">
-        <v>0.01419981224201101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02274019270853812</v>
+      </c>
+      <c r="E6">
+        <v>-0.01049806757271069</v>
+      </c>
+      <c r="F6">
+        <v>-0.04415434975187538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07034747089875082</v>
+        <v>0.06362797183561841</v>
       </c>
       <c r="C7">
-        <v>-0.002291127915254894</v>
+        <v>0.001648644908127117</v>
       </c>
       <c r="D7">
-        <v>-0.03805147044897439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05268198149310734</v>
+      </c>
+      <c r="E7">
+        <v>-0.01191701463421076</v>
+      </c>
+      <c r="F7">
+        <v>-0.04723329273824872</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06293895108164774</v>
+        <v>0.05730569159761594</v>
       </c>
       <c r="C8">
-        <v>0.01094934373932798</v>
+        <v>0.01343094313650574</v>
       </c>
       <c r="D8">
-        <v>-0.01160905370652263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03231179851736444</v>
+      </c>
+      <c r="E8">
+        <v>-0.01765249607074693</v>
+      </c>
+      <c r="F8">
+        <v>0.02766238741548652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07929396464128967</v>
+        <v>0.07096674972490033</v>
       </c>
       <c r="C9">
-        <v>-0.01661525957543536</v>
+        <v>-0.01025141137449538</v>
       </c>
       <c r="D9">
-        <v>-0.06997762744080901</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08679662130947977</v>
+      </c>
+      <c r="E9">
+        <v>-0.02328618171474373</v>
+      </c>
+      <c r="F9">
+        <v>-0.04781657258671541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07998179108986804</v>
+        <v>0.0922564058176555</v>
       </c>
       <c r="C10">
-        <v>-0.009045339242003975</v>
+        <v>-0.02096154613218981</v>
       </c>
       <c r="D10">
-        <v>0.1603740199294503</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1651357434390116</v>
+      </c>
+      <c r="E10">
+        <v>0.0328535287162309</v>
+      </c>
+      <c r="F10">
+        <v>0.05494269818200626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09373576394675033</v>
+        <v>0.08817892691852623</v>
       </c>
       <c r="C11">
-        <v>-0.01666803141470879</v>
+        <v>-0.0102262246433515</v>
       </c>
       <c r="D11">
-        <v>-0.0984136075297032</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1171153608642077</v>
+      </c>
+      <c r="E11">
+        <v>-0.0462295542688511</v>
+      </c>
+      <c r="F11">
+        <v>-0.02308337923557047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.1009181748521627</v>
+        <v>0.09212077288456286</v>
       </c>
       <c r="C12">
-        <v>-0.01516842308067231</v>
+        <v>-0.007616901952981221</v>
       </c>
       <c r="D12">
-        <v>-0.09813856564298412</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.132046113377654</v>
+      </c>
+      <c r="E12">
+        <v>-0.04648843599028824</v>
+      </c>
+      <c r="F12">
+        <v>-0.02898214181921958</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04182361117856147</v>
+        <v>0.04160110117808624</v>
       </c>
       <c r="C13">
-        <v>-0.005737095213533098</v>
+        <v>-0.002383142998856072</v>
       </c>
       <c r="D13">
-        <v>-0.03761029224465848</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05375884856964454</v>
+      </c>
+      <c r="E13">
+        <v>0.004627394171073603</v>
+      </c>
+      <c r="F13">
+        <v>-0.001120807207436448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02216375851632831</v>
+        <v>0.0241442131612572</v>
       </c>
       <c r="C14">
-        <v>-0.01513487140068688</v>
+        <v>-0.01382784382040463</v>
       </c>
       <c r="D14">
-        <v>-0.02165300978272265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0327510418865942</v>
+      </c>
+      <c r="E14">
+        <v>-0.01875818700474621</v>
+      </c>
+      <c r="F14">
+        <v>-0.01303237436590494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03491729713549346</v>
+        <v>0.03271156714106863</v>
       </c>
       <c r="C15">
-        <v>-0.007906789894752589</v>
+        <v>-0.004571605255765857</v>
       </c>
       <c r="D15">
-        <v>-0.02602531353832099</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04468552545460316</v>
+      </c>
+      <c r="E15">
+        <v>-0.00586601139850661</v>
+      </c>
+      <c r="F15">
+        <v>-0.02439275084785151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07859352669151072</v>
+        <v>0.07438475640734078</v>
       </c>
       <c r="C16">
-        <v>-0.00859636693180761</v>
+        <v>-0.0008550454573124165</v>
       </c>
       <c r="D16">
-        <v>-0.0975181290730722</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.127694084092443</v>
+      </c>
+      <c r="E16">
+        <v>-0.0609676568356478</v>
+      </c>
+      <c r="F16">
+        <v>-0.02716373193080594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0006281127620938696</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0001790636823794735</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001151931975366331</v>
+      </c>
+      <c r="E17">
+        <v>-0.0007697555216467347</v>
+      </c>
+      <c r="F17">
+        <v>0.001111028685139162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.00199487240633984</v>
+        <v>0.0361086400564286</v>
       </c>
       <c r="C18">
-        <v>0.0008776046941046846</v>
+        <v>0.003025356854859704</v>
       </c>
       <c r="D18">
-        <v>-0.004953968302042955</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.0160011566180279</v>
+      </c>
+      <c r="E18">
+        <v>0.009249638386681157</v>
+      </c>
+      <c r="F18">
+        <v>0.009101638555293268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06382856129751376</v>
+        <v>0.0617594379398899</v>
       </c>
       <c r="C20">
-        <v>-0.006261179835092376</v>
+        <v>3.889561742723562e-05</v>
       </c>
       <c r="D20">
-        <v>-0.03998860593435679</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07785854576544469</v>
+      </c>
+      <c r="E20">
+        <v>-0.05624954847442128</v>
+      </c>
+      <c r="F20">
+        <v>-0.02519066415836729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04650162737103417</v>
+        <v>0.04070696962240922</v>
       </c>
       <c r="C21">
-        <v>-0.009767432315452119</v>
+        <v>-0.006394905394874631</v>
       </c>
       <c r="D21">
-        <v>-0.01224355484775022</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03774613082584038</v>
+      </c>
+      <c r="E21">
+        <v>0.001832229450506689</v>
+      </c>
+      <c r="F21">
+        <v>0.02566742406977411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03365960008964296</v>
+        <v>0.04321250689988933</v>
       </c>
       <c r="C22">
-        <v>-0.0003902646155747922</v>
+        <v>-0.0003658082972423105</v>
       </c>
       <c r="D22">
-        <v>0.01896045283186871</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007020448876417319</v>
+      </c>
+      <c r="E22">
+        <v>-0.03552953555569221</v>
+      </c>
+      <c r="F22">
+        <v>0.03718898809199839</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.0336158122769699</v>
+        <v>0.04318840362452127</v>
       </c>
       <c r="C23">
-        <v>-0.0003821118571608411</v>
+        <v>-0.0003574437267860295</v>
       </c>
       <c r="D23">
-        <v>0.01894761059162268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007035898341148076</v>
+      </c>
+      <c r="E23">
+        <v>-0.03571241388420059</v>
+      </c>
+      <c r="F23">
+        <v>0.03715191826149591</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08569833728324393</v>
+        <v>0.08003257324001428</v>
       </c>
       <c r="C24">
-        <v>-0.008493503647989738</v>
+        <v>-0.001489479323974955</v>
       </c>
       <c r="D24">
-        <v>-0.1055616216178681</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1214299403292571</v>
+      </c>
+      <c r="E24">
+        <v>-0.04896064501444741</v>
+      </c>
+      <c r="F24">
+        <v>-0.02754388227027931</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09242949253794938</v>
+        <v>0.08546476041746522</v>
       </c>
       <c r="C25">
-        <v>-0.01057291370861734</v>
+        <v>-0.004237795000075957</v>
       </c>
       <c r="D25">
-        <v>-0.09316372220473965</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1095839714173203</v>
+      </c>
+      <c r="E25">
+        <v>-0.03234200564599795</v>
+      </c>
+      <c r="F25">
+        <v>-0.02796308474782409</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.0610605530973855</v>
+        <v>0.05914293450400863</v>
       </c>
       <c r="C26">
-        <v>-0.01760420757681012</v>
+        <v>-0.01434783456210932</v>
       </c>
       <c r="D26">
-        <v>-0.009143595353936594</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04059361138964079</v>
+      </c>
+      <c r="E26">
+        <v>-0.02848329631828372</v>
+      </c>
+      <c r="F26">
+        <v>0.006895402152301995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1365186265540538</v>
+        <v>0.142585370611468</v>
       </c>
       <c r="C28">
-        <v>-0.004982066082355706</v>
+        <v>-0.02208747879568796</v>
       </c>
       <c r="D28">
-        <v>0.2695673724511047</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.261079208592195</v>
+      </c>
+      <c r="E28">
+        <v>0.06738892767799236</v>
+      </c>
+      <c r="F28">
+        <v>-0.007705067776899708</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02563004616011246</v>
+        <v>0.02867477013296103</v>
       </c>
       <c r="C29">
-        <v>-0.0098813643371555</v>
+        <v>-0.008683166080299003</v>
       </c>
       <c r="D29">
-        <v>-0.01694487041248485</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03102894022333963</v>
+      </c>
+      <c r="E29">
+        <v>-0.01380847847341026</v>
+      </c>
+      <c r="F29">
+        <v>0.01330617492735566</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.07147548508084427</v>
+        <v>0.05914354810415451</v>
       </c>
       <c r="C30">
-        <v>-0.009250465877656556</v>
+        <v>-0.002528547206519479</v>
       </c>
       <c r="D30">
-        <v>-0.07722040025653723</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08949707614382618</v>
+      </c>
+      <c r="E30">
+        <v>-0.01591278044655323</v>
+      </c>
+      <c r="F30">
+        <v>-0.07824441211247116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.0492746666008004</v>
+        <v>0.05095861788697012</v>
       </c>
       <c r="C31">
-        <v>-0.01589629121003491</v>
+        <v>-0.01534154153770537</v>
       </c>
       <c r="D31">
-        <v>-0.01894148899012366</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0249299984299314</v>
+      </c>
+      <c r="E31">
+        <v>-0.02855294480258563</v>
+      </c>
+      <c r="F31">
+        <v>0.001265175654754498</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04887500049685357</v>
+        <v>0.05115900822145291</v>
       </c>
       <c r="C32">
-        <v>-0.001302418497780208</v>
+        <v>0.001988758056568587</v>
       </c>
       <c r="D32">
-        <v>-0.01687113377772165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03628501561353117</v>
+      </c>
+      <c r="E32">
+        <v>-0.03382097506692923</v>
+      </c>
+      <c r="F32">
+        <v>-0.003985404618589089</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09836020398001656</v>
+        <v>0.08930033864646149</v>
       </c>
       <c r="C33">
-        <v>-0.0128124167534599</v>
+        <v>-0.00665788778790323</v>
       </c>
       <c r="D33">
-        <v>-0.07458056179657092</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1012437244482716</v>
+      </c>
+      <c r="E33">
+        <v>-0.04373226177878934</v>
+      </c>
+      <c r="F33">
+        <v>-0.03713397185504635</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07593744010500234</v>
+        <v>0.06796238700191651</v>
       </c>
       <c r="C34">
-        <v>-0.01527346583694712</v>
+        <v>-0.009977585657749062</v>
       </c>
       <c r="D34">
-        <v>-0.09117966169190682</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1093610835892787</v>
+      </c>
+      <c r="E34">
+        <v>-0.03455850734575785</v>
+      </c>
+      <c r="F34">
+        <v>-0.03369467895086981</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02184062086255049</v>
+        <v>0.02504251189193268</v>
       </c>
       <c r="C35">
-        <v>-0.002431195006866838</v>
+        <v>-0.002498116400855181</v>
       </c>
       <c r="D35">
-        <v>-0.001376983826684034</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01118951989019946</v>
+      </c>
+      <c r="E35">
+        <v>-0.01163843645982841</v>
+      </c>
+      <c r="F35">
+        <v>-0.0008347681965477712</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01939925787986074</v>
+        <v>0.0277072722643248</v>
       </c>
       <c r="C36">
-        <v>-0.009254827509868269</v>
+        <v>-0.006806428513474675</v>
       </c>
       <c r="D36">
-        <v>-0.02907228966558293</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03996329064412515</v>
+      </c>
+      <c r="E36">
+        <v>-0.01669733680189545</v>
+      </c>
+      <c r="F36">
+        <v>-0.01569047505851591</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0007339492437093743</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0005696749254328539</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002311262123106538</v>
+      </c>
+      <c r="E37">
+        <v>0.001128153903822034</v>
+      </c>
+      <c r="F37">
+        <v>-0.000554897235919963</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0006748033003544519</v>
+        <v>-0.0004187136923303788</v>
       </c>
       <c r="C38">
-        <v>9.421360282194716e-05</v>
+        <v>0.00014894874127322</v>
       </c>
       <c r="D38">
-        <v>-0.001293604913064967</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0007113762832572808</v>
+      </c>
+      <c r="E38">
+        <v>0.0001130030505996591</v>
+      </c>
+      <c r="F38">
+        <v>0.0001054774260565423</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.125111628543249</v>
+        <v>0.1043070428490793</v>
       </c>
       <c r="C39">
-        <v>-0.02320118214671588</v>
+        <v>-0.01538699022442705</v>
       </c>
       <c r="D39">
-        <v>-0.1409613149963616</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1549661815482995</v>
+      </c>
+      <c r="E39">
+        <v>-0.05982111483028566</v>
+      </c>
+      <c r="F39">
+        <v>-0.03025825097179195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02985443052188258</v>
+        <v>0.04104223628760063</v>
       </c>
       <c r="C40">
-        <v>-0.009475282390522841</v>
+        <v>-0.006978377825627228</v>
       </c>
       <c r="D40">
-        <v>0.0119246693789725</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03028214715526382</v>
+      </c>
+      <c r="E40">
+        <v>-0.001788911275385623</v>
+      </c>
+      <c r="F40">
+        <v>0.01560478318814595</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02476966487198777</v>
+        <v>0.02800275906629042</v>
       </c>
       <c r="C41">
-        <v>-0.007033445557535409</v>
+        <v>-0.006876921085312359</v>
       </c>
       <c r="D41">
-        <v>-0.0009067616497640047</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01092909022720126</v>
+      </c>
+      <c r="E41">
+        <v>-0.01236401654299138</v>
+      </c>
+      <c r="F41">
+        <v>0.005717850924470393</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03835962776378145</v>
+        <v>0.04078520833971665</v>
       </c>
       <c r="C43">
-        <v>-0.008197657135859293</v>
+        <v>-0.007030210882866845</v>
       </c>
       <c r="D43">
-        <v>-0.0067649955894731</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01898585304132659</v>
+      </c>
+      <c r="E43">
+        <v>-0.0252501550413575</v>
+      </c>
+      <c r="F43">
+        <v>0.01225338396332038</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.08498394066533495</v>
+        <v>0.07943734148123043</v>
       </c>
       <c r="C44">
-        <v>-0.02659178007861355</v>
+        <v>-0.01914312483861092</v>
       </c>
       <c r="D44">
-        <v>-0.07674844955499688</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09772766310559915</v>
+      </c>
+      <c r="E44">
+        <v>-0.0622861244829913</v>
+      </c>
+      <c r="F44">
+        <v>-0.1550971774024549</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01653847536098662</v>
+        <v>0.02348350958361665</v>
       </c>
       <c r="C46">
-        <v>-0.00401920689842199</v>
+        <v>-0.003308913068206206</v>
       </c>
       <c r="D46">
-        <v>0.001592016567483083</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01321259315709561</v>
+      </c>
+      <c r="E46">
+        <v>-0.02630611183964391</v>
+      </c>
+      <c r="F46">
+        <v>0.006314750997293494</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05251880048510937</v>
+        <v>0.05248328811003704</v>
       </c>
       <c r="C47">
-        <v>-0.003490275692354371</v>
+        <v>-0.003424423324097343</v>
       </c>
       <c r="D47">
-        <v>0.004150914076684688</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01332602467338136</v>
+      </c>
+      <c r="E47">
+        <v>-0.0233399466042946</v>
+      </c>
+      <c r="F47">
+        <v>0.03192221753476659</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04694423222057289</v>
+        <v>0.05034234821410846</v>
       </c>
       <c r="C48">
-        <v>-0.005391184903669933</v>
+        <v>-0.002109396724341905</v>
       </c>
       <c r="D48">
-        <v>-0.0370840098688924</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05033866753679463</v>
+      </c>
+      <c r="E48">
+        <v>0.004763631146755203</v>
+      </c>
+      <c r="F48">
+        <v>-0.009755015209283228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2000533666386551</v>
+        <v>0.2004403760757971</v>
       </c>
       <c r="C49">
-        <v>-0.015932465851173</v>
+        <v>-0.01875450887439106</v>
       </c>
       <c r="D49">
-        <v>-0.001542789690218924</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.006503632793647899</v>
+      </c>
+      <c r="E49">
+        <v>-0.03051923972733462</v>
+      </c>
+      <c r="F49">
+        <v>-0.03803788072710158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05035651341842792</v>
+        <v>0.05128778344122742</v>
       </c>
       <c r="C50">
-        <v>-0.01195196724252954</v>
+        <v>-0.01106341913794168</v>
       </c>
       <c r="D50">
-        <v>-0.01783977405155003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02473158633544068</v>
+      </c>
+      <c r="E50">
+        <v>-0.03009469850081897</v>
+      </c>
+      <c r="F50">
+        <v>-0.009696738507533876</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1590438238864444</v>
+        <v>0.1477060566322346</v>
       </c>
       <c r="C52">
-        <v>-0.01568315131868052</v>
+        <v>-0.01682722352995634</v>
       </c>
       <c r="D52">
-        <v>-0.05455211365551534</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04274741893402924</v>
+      </c>
+      <c r="E52">
+        <v>-0.01979886481861572</v>
+      </c>
+      <c r="F52">
+        <v>-0.04360671696064574</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1691417932945935</v>
+        <v>0.1711735624691671</v>
       </c>
       <c r="C53">
-        <v>-0.01553472676474062</v>
+        <v>-0.01935367315499665</v>
       </c>
       <c r="D53">
-        <v>-0.02519304585170087</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005695143147272373</v>
+      </c>
+      <c r="E53">
+        <v>-0.02869789027408736</v>
+      </c>
+      <c r="F53">
+        <v>-0.07433979011682425</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01968435530332875</v>
+        <v>0.0209824341063306</v>
       </c>
       <c r="C54">
-        <v>-0.01221848950720007</v>
+        <v>-0.01131764448823765</v>
       </c>
       <c r="D54">
-        <v>-0.02191687356377907</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03457713883597473</v>
+      </c>
+      <c r="E54">
+        <v>-0.0219836606713205</v>
+      </c>
+      <c r="F54">
+        <v>0.005430342287238499</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1168068707689669</v>
+        <v>0.1144803530371761</v>
       </c>
       <c r="C55">
-        <v>-0.01419173209982231</v>
+        <v>-0.01722741644784399</v>
       </c>
       <c r="D55">
-        <v>-0.01633536828731745</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007634243555096072</v>
+      </c>
+      <c r="E55">
+        <v>-0.02396883339665186</v>
+      </c>
+      <c r="F55">
+        <v>-0.04708885410168229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.176498551370151</v>
+        <v>0.1769665165020282</v>
       </c>
       <c r="C56">
-        <v>-0.01342281300526962</v>
+        <v>-0.01731656362921187</v>
       </c>
       <c r="D56">
-        <v>-0.005051968465262845</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.001531168978985287</v>
+      </c>
+      <c r="E56">
+        <v>-0.03376963360115746</v>
+      </c>
+      <c r="F56">
+        <v>-0.05227210174018491</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.03844120189993558</v>
+        <v>0.04489469769236324</v>
       </c>
       <c r="C58">
-        <v>-0.006558409629894542</v>
+        <v>0.0004471603566974164</v>
       </c>
       <c r="D58">
-        <v>-0.04934677953837296</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07155277858706834</v>
+      </c>
+      <c r="E58">
+        <v>-0.03205964344665757</v>
+      </c>
+      <c r="F58">
+        <v>0.03862138375643859</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1659440343041038</v>
+        <v>0.168005788714501</v>
       </c>
       <c r="C59">
-        <v>-0.005204044736507399</v>
+        <v>-0.02211934664709352</v>
       </c>
       <c r="D59">
-        <v>0.2312361915424349</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2170036426509618</v>
+      </c>
+      <c r="E59">
+        <v>0.04644128374150239</v>
+      </c>
+      <c r="F59">
+        <v>0.03565492967413054</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2458648308160822</v>
+        <v>0.2314681418960518</v>
       </c>
       <c r="C60">
-        <v>0.005144891787347818</v>
+        <v>0.00261373813469536</v>
       </c>
       <c r="D60">
-        <v>-0.0599304900474353</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04146961499613089</v>
+      </c>
+      <c r="E60">
+        <v>-0.008577204702290699</v>
+      </c>
+      <c r="F60">
+        <v>0.005240755085615642</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09595362699688906</v>
+        <v>0.08038172129390123</v>
       </c>
       <c r="C61">
-        <v>-0.01692316511129131</v>
+        <v>-0.01110512567151594</v>
       </c>
       <c r="D61">
-        <v>-0.09603713606067414</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1179971580171323</v>
+      </c>
+      <c r="E61">
+        <v>-0.03947965685319363</v>
+      </c>
+      <c r="F61">
+        <v>-0.01344264942728606</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1735028172184559</v>
+        <v>0.1696170426341916</v>
       </c>
       <c r="C62">
-        <v>-0.01689443836644863</v>
+        <v>-0.02031082041060793</v>
       </c>
       <c r="D62">
-        <v>-0.005630659312641631</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006093181195371556</v>
+      </c>
+      <c r="E62">
+        <v>-0.03409144930331321</v>
+      </c>
+      <c r="F62">
+        <v>-0.03602425713649111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04686125309020517</v>
+        <v>0.04584657970945842</v>
       </c>
       <c r="C63">
-        <v>-0.006204770469444463</v>
+        <v>-0.001674877870349574</v>
       </c>
       <c r="D63">
-        <v>-0.0403874787388899</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05885739427056765</v>
+      </c>
+      <c r="E63">
+        <v>-0.02318740423781996</v>
+      </c>
+      <c r="F63">
+        <v>-0.003548414287186956</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1021735541925415</v>
+        <v>0.1104357660125914</v>
       </c>
       <c r="C64">
-        <v>-0.01397371724864225</v>
+        <v>-0.01125375322974558</v>
       </c>
       <c r="D64">
-        <v>-0.02382564265403405</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04352037721677018</v>
+      </c>
+      <c r="E64">
+        <v>-0.02187333768685902</v>
+      </c>
+      <c r="F64">
+        <v>-0.02590772298159845</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1296462896548884</v>
+        <v>0.149704403347239</v>
       </c>
       <c r="C65">
-        <v>-0.03166723089008158</v>
+        <v>-0.03372168371481958</v>
       </c>
       <c r="D65">
-        <v>0.01704007056231298</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04352234231841937</v>
+      </c>
+      <c r="E65">
+        <v>-0.006169934282040425</v>
+      </c>
+      <c r="F65">
+        <v>-0.03960502020230375</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1504399219379988</v>
+        <v>0.1236528954515069</v>
       </c>
       <c r="C66">
-        <v>-0.01978149036072606</v>
+        <v>-0.01321052678867609</v>
       </c>
       <c r="D66">
-        <v>-0.1284983472836694</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1435011734740205</v>
+      </c>
+      <c r="E66">
+        <v>-0.06572807526560841</v>
+      </c>
+      <c r="F66">
+        <v>-0.03459469676224954</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05885088993534179</v>
+        <v>0.0576347569453301</v>
       </c>
       <c r="C67">
-        <v>-0.004534980070208505</v>
+        <v>-0.002723019099014149</v>
       </c>
       <c r="D67">
-        <v>-0.04516926371802429</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05617765881817626</v>
+      </c>
+      <c r="E67">
+        <v>-0.01668668800272495</v>
+      </c>
+      <c r="F67">
+        <v>0.03131589769491593</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.106177283593323</v>
+        <v>0.1165561546306429</v>
       </c>
       <c r="C68">
-        <v>-0.01539160023960309</v>
+        <v>-0.03268588858986293</v>
       </c>
       <c r="D68">
-        <v>0.2535138297124662</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2610033546520501</v>
+      </c>
+      <c r="E68">
+        <v>0.08729851321923113</v>
+      </c>
+      <c r="F68">
+        <v>-0.003693843976870809</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03881346623839788</v>
+        <v>0.03930239720679417</v>
       </c>
       <c r="C69">
-        <v>-0.0003858182071928803</v>
+        <v>-0.001163234609024101</v>
       </c>
       <c r="D69">
-        <v>-0.005590534403820183</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008180711613136361</v>
+      </c>
+      <c r="E69">
+        <v>-0.02355161934435794</v>
+      </c>
+      <c r="F69">
+        <v>-0.001011622166291212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.05763686234322899</v>
+        <v>0.06631466804742646</v>
       </c>
       <c r="C70">
-        <v>0.02445722922338242</v>
+        <v>0.02759301361216967</v>
       </c>
       <c r="D70">
-        <v>0.03650701855469829</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02379771403207704</v>
+      </c>
+      <c r="E70">
+        <v>0.03394615188584216</v>
+      </c>
+      <c r="F70">
+        <v>0.1842318612430019</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1208849402868651</v>
+        <v>0.1364630473041363</v>
       </c>
       <c r="C71">
-        <v>-0.01950050883831278</v>
+        <v>-0.0370073528007246</v>
       </c>
       <c r="D71">
-        <v>0.2703856142011449</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2724410342469983</v>
+      </c>
+      <c r="E71">
+        <v>0.09771363031099958</v>
+      </c>
+      <c r="F71">
+        <v>-0.008989550288995301</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.139407671845767</v>
+        <v>0.1426481210193392</v>
       </c>
       <c r="C72">
-        <v>-0.02452025852899977</v>
+        <v>-0.0269142742133093</v>
       </c>
       <c r="D72">
-        <v>0.001574403486228038</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003072639928877987</v>
+      </c>
+      <c r="E72">
+        <v>-0.03653305499663306</v>
+      </c>
+      <c r="F72">
+        <v>-0.03171162635201608</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.1979247355853697</v>
+        <v>0.2038436088791623</v>
       </c>
       <c r="C73">
-        <v>-0.01127570301077841</v>
+        <v>-0.01261282653285041</v>
       </c>
       <c r="D73">
-        <v>-0.01220365186834873</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01740850254535259</v>
+      </c>
+      <c r="E73">
+        <v>-0.06295349688271727</v>
+      </c>
+      <c r="F73">
+        <v>-0.03852151546279496</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09213408267417664</v>
+        <v>0.09510654082320184</v>
       </c>
       <c r="C74">
-        <v>-0.01119710420288493</v>
+        <v>-0.01331258712970513</v>
       </c>
       <c r="D74">
-        <v>-0.02802216724834678</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01686614233153088</v>
+      </c>
+      <c r="E74">
+        <v>-0.04420906081598704</v>
+      </c>
+      <c r="F74">
+        <v>-0.05809740341704431</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1387727666503756</v>
+        <v>0.1275805643564357</v>
       </c>
       <c r="C75">
-        <v>-0.02606988258736846</v>
+        <v>-0.02802722578779205</v>
       </c>
       <c r="D75">
-        <v>-0.03137210735419849</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03053803713352879</v>
+      </c>
+      <c r="E75">
+        <v>-0.05817157287579763</v>
+      </c>
+      <c r="F75">
+        <v>-0.02262039732462039</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07286477935702756</v>
+        <v>0.08766937733430012</v>
       </c>
       <c r="C77">
-        <v>-0.01540076089861098</v>
+        <v>-0.00795718597023571</v>
       </c>
       <c r="D77">
-        <v>-0.1003527949827302</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1115511001883717</v>
+      </c>
+      <c r="E77">
+        <v>-0.03794892798275867</v>
+      </c>
+      <c r="F77">
+        <v>-0.03662563067017417</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09961399429229054</v>
+        <v>0.1001158096108892</v>
       </c>
       <c r="C78">
-        <v>-0.04634373699791381</v>
+        <v>-0.03928133018093621</v>
       </c>
       <c r="D78">
-        <v>-0.09839668190343165</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1135662960191344</v>
+      </c>
+      <c r="E78">
+        <v>-0.07429496144255307</v>
+      </c>
+      <c r="F78">
+        <v>-0.04678162047945014</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1684111365054144</v>
+        <v>0.1637119326616224</v>
       </c>
       <c r="C79">
-        <v>-0.02039297725226546</v>
+        <v>-0.0226669041552909</v>
       </c>
       <c r="D79">
-        <v>-0.007223956432061704</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01493030163346421</v>
+      </c>
+      <c r="E79">
+        <v>-0.04652907017678502</v>
+      </c>
+      <c r="F79">
+        <v>-0.01234271944234024</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.09191147669681882</v>
+        <v>0.08260685147947663</v>
       </c>
       <c r="C80">
-        <v>-0.0006969023581383108</v>
+        <v>0.001046282181258035</v>
       </c>
       <c r="D80">
-        <v>-0.04803875978901385</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0561534756681314</v>
+      </c>
+      <c r="E80">
+        <v>-0.03587929151016532</v>
+      </c>
+      <c r="F80">
+        <v>0.02182746485716206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1237160917900789</v>
+        <v>0.1193817724439866</v>
       </c>
       <c r="C81">
-        <v>-0.02866191206527962</v>
+        <v>-0.03180930082455812</v>
       </c>
       <c r="D81">
-        <v>-0.04132472806588892</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01551587104184454</v>
+      </c>
+      <c r="E81">
+        <v>-0.05726768659826181</v>
+      </c>
+      <c r="F81">
+        <v>-0.01855909401228143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1679747600837186</v>
+        <v>0.1655896591743372</v>
       </c>
       <c r="C82">
-        <v>-0.02011685438487033</v>
+        <v>-0.02469357270446444</v>
       </c>
       <c r="D82">
-        <v>-0.0308808337871079</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004033528688721881</v>
+      </c>
+      <c r="E82">
+        <v>-0.0268087552466936</v>
+      </c>
+      <c r="F82">
+        <v>-0.08220310114566685</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.07138883373295488</v>
+        <v>0.05834014659266416</v>
       </c>
       <c r="C83">
-        <v>-0.005392339041932786</v>
+        <v>-0.002576415607817663</v>
       </c>
       <c r="D83">
-        <v>-0.02839564755238054</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05109987694647635</v>
+      </c>
+      <c r="E83">
+        <v>-0.003021352158983211</v>
+      </c>
+      <c r="F83">
+        <v>0.03042409241208385</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06924719414286902</v>
+        <v>0.05928025298165408</v>
       </c>
       <c r="C84">
-        <v>-0.0141160316483318</v>
+        <v>-0.01103946960442209</v>
       </c>
       <c r="D84">
-        <v>-0.05356180591249929</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06357964166330521</v>
+      </c>
+      <c r="E84">
+        <v>-0.007154461679133542</v>
+      </c>
+      <c r="F84">
+        <v>-0.005304751106125743</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1400639859181941</v>
+        <v>0.1355599506446076</v>
       </c>
       <c r="C85">
-        <v>-0.02548910543106142</v>
+        <v>-0.02797834164109117</v>
       </c>
       <c r="D85">
-        <v>-0.01809383312824498</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009611018973363522</v>
+      </c>
+      <c r="E85">
+        <v>-0.03661058184190633</v>
+      </c>
+      <c r="F85">
+        <v>-0.04775498764249568</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1014229414481792</v>
+        <v>0.0949098308919115</v>
       </c>
       <c r="C86">
-        <v>0.001877554090134549</v>
+        <v>0.005422617111576482</v>
       </c>
       <c r="D86">
-        <v>0.05991990212963984</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04148099017634811</v>
+      </c>
+      <c r="E86">
+        <v>-0.2297977228732833</v>
+      </c>
+      <c r="F86">
+        <v>0.9044106515120172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1030608217604608</v>
+        <v>0.09470511864216513</v>
       </c>
       <c r="C87">
-        <v>-0.02797838561510881</v>
+        <v>-0.01910353789272134</v>
       </c>
       <c r="D87">
-        <v>-0.06179992922253485</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09409101945868162</v>
+      </c>
+      <c r="E87">
+        <v>0.05353979234747221</v>
+      </c>
+      <c r="F87">
+        <v>-0.04692837664230901</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05590418905925548</v>
+        <v>0.06077787795818706</v>
       </c>
       <c r="C88">
-        <v>-0.005542627396541698</v>
+        <v>-0.00213547361420327</v>
       </c>
       <c r="D88">
-        <v>-0.04151419272427651</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04973851885662469</v>
+      </c>
+      <c r="E88">
+        <v>-0.02460175922310952</v>
+      </c>
+      <c r="F88">
+        <v>-0.0142295612070264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1221657850269604</v>
+        <v>0.1306236888378356</v>
       </c>
       <c r="C89">
-        <v>0.00220531835487361</v>
+        <v>-0.01356298170430451</v>
       </c>
       <c r="D89">
-        <v>0.276942490162666</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2470007166250179</v>
+      </c>
+      <c r="E89">
+        <v>0.08921294153559188</v>
+      </c>
+      <c r="F89">
+        <v>0.009283258690249973</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1332335729243808</v>
+        <v>0.1513786215736204</v>
       </c>
       <c r="C90">
-        <v>-0.01614099931262811</v>
+        <v>-0.0337595392065789</v>
       </c>
       <c r="D90">
-        <v>0.2734034668710318</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2709327053604923</v>
+      </c>
+      <c r="E90">
+        <v>0.1136620540453704</v>
+      </c>
+      <c r="F90">
+        <v>0.008206794893061866</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1175527326891438</v>
+        <v>0.1208952925156179</v>
       </c>
       <c r="C91">
-        <v>-0.01548330807465388</v>
+        <v>-0.0196244730766226</v>
       </c>
       <c r="D91">
-        <v>0.007352305239405585</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01478696835256724</v>
+      </c>
+      <c r="E91">
+        <v>-0.05557494886797765</v>
+      </c>
+      <c r="F91">
+        <v>0.0007083717524541946</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1462594848185051</v>
+        <v>0.1481818504174126</v>
       </c>
       <c r="C92">
-        <v>-0.004129869338880026</v>
+        <v>-0.02444757925379121</v>
       </c>
       <c r="D92">
-        <v>0.3061289977147655</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.290533786201</v>
+      </c>
+      <c r="E92">
+        <v>0.1015735756511052</v>
+      </c>
+      <c r="F92">
+        <v>0.01266802611889149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.134473304515814</v>
+        <v>0.1516031580725867</v>
       </c>
       <c r="C93">
-        <v>-0.01151176024297518</v>
+        <v>-0.02882344864724406</v>
       </c>
       <c r="D93">
-        <v>0.2618054401194896</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2667123886926963</v>
+      </c>
+      <c r="E93">
+        <v>0.07846433900802471</v>
+      </c>
+      <c r="F93">
+        <v>-0.002736249512514923</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1350289350654888</v>
+        <v>0.1283097095866191</v>
       </c>
       <c r="C94">
-        <v>-0.02348035847061837</v>
+        <v>-0.02435807504481069</v>
       </c>
       <c r="D94">
-        <v>-0.05164275461105439</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04221238559587224</v>
+      </c>
+      <c r="E94">
+        <v>-0.0574085867136625</v>
+      </c>
+      <c r="F94">
+        <v>-0.03653964628659646</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.123898873216715</v>
+        <v>0.1264995506520929</v>
       </c>
       <c r="C95">
-        <v>-0.009551588050877823</v>
+        <v>-0.002972750839176625</v>
       </c>
       <c r="D95">
-        <v>-0.06667617003657307</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09507353236613147</v>
+      </c>
+      <c r="E95">
+        <v>-0.04956008618015949</v>
+      </c>
+      <c r="F95">
+        <v>0.005557862684261435</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.09712806478072913</v>
+        <v>0.107878868744533</v>
       </c>
       <c r="C96">
-        <v>0.9897980790140508</v>
+        <v>0.9872457898917117</v>
       </c>
       <c r="D96">
-        <v>-0.00567943671869404</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05123164456319296</v>
+      </c>
+      <c r="E96">
+        <v>-0.05341833902743713</v>
+      </c>
+      <c r="F96">
+        <v>-0.04235186538033157</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1792402521303915</v>
+        <v>0.1911631046838961</v>
       </c>
       <c r="C97">
-        <v>0.009447267890951273</v>
+        <v>0.007041534506677728</v>
       </c>
       <c r="D97">
-        <v>0.04592002451574072</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0202097424547621</v>
+      </c>
+      <c r="E97">
+        <v>-0.0208497436419389</v>
+      </c>
+      <c r="F97">
+        <v>0.09317324388900902</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1975152244563113</v>
+        <v>0.2058480637931614</v>
       </c>
       <c r="C98">
-        <v>-0.006811619291096591</v>
+        <v>-0.006872395330388438</v>
       </c>
       <c r="D98">
-        <v>0.01079605352965826</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01252300969512712</v>
+      </c>
+      <c r="E98">
+        <v>0.07869427605735636</v>
+      </c>
+      <c r="F98">
+        <v>0.0946902175516353</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05264384732465692</v>
+        <v>0.05469515585232494</v>
       </c>
       <c r="C99">
-        <v>0.002891956189920253</v>
+        <v>0.004647363394730761</v>
       </c>
       <c r="D99">
-        <v>-0.02399674527255655</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03980990862762612</v>
+      </c>
+      <c r="E99">
+        <v>-0.02237938082988356</v>
+      </c>
+      <c r="F99">
+        <v>-0.00199202878926795</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1377268152532695</v>
+        <v>0.1270367513294556</v>
       </c>
       <c r="C100">
-        <v>0.03213768279598116</v>
+        <v>0.05398250368603259</v>
       </c>
       <c r="D100">
-        <v>-0.4364756032346544</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3472874344132639</v>
+      </c>
+      <c r="E100">
+        <v>0.8852833617529728</v>
+      </c>
+      <c r="F100">
+        <v>0.1581783914187831</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02543125753515094</v>
+        <v>0.02863873884023579</v>
       </c>
       <c r="C101">
-        <v>-0.009837060057558671</v>
+        <v>-0.008709045330656633</v>
       </c>
       <c r="D101">
-        <v>-0.01616938249604448</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03062935691428395</v>
+      </c>
+      <c r="E101">
+        <v>-0.01319994283969128</v>
+      </c>
+      <c r="F101">
+        <v>0.01451547863152455</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
